--- a/DateBase/orders/Dang Nguyen_2025-7-18.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-18.xlsx
@@ -608,6 +608,9 @@
         <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
 pink_Trachymene Coerulea_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -669,7 +672,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>07810655553015201510101010525150</v>
+        <v>078106555530152015101010105251510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-7-18.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-18.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -612,9 +612,90 @@
         <v>10</v>
       </c>
     </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>490_米花 粉_rice flower pink_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>3</v>
+      </c>
+      <c r="C23" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="C26" t="str" xml:space="preserve">
+        <v xml:space="preserve">542_吊米 红_hanging amaranthus
+red_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F27" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>76_艾玛_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>314_松虫草花边黑_scabiosa_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>515_松虫草紫红_scabiosa red_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -672,7 +753,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>078106555530152015101010105251510</v>
+        <v>07810655553015201510101010525151051010155151010150</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-7-18.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-18.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -692,10 +692,93 @@
       <c r="A31" t="str">
         <v>4</v>
       </c>
+      <c r="C31" t="str">
+        <v>594_绿毛球_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F31" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>784_银桦_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>415_百子莲_Agapanthus_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>643_巧克力秋英_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>470_海芋白_Calla Lily_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>458_蓝盆花白色_Scabiosa caucasica white_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>43_拉丝红_Spider Red_Gerbera L._20stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>44_拉丝粉_Spider Pink_Gerbera L._20stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>48_香格里拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -753,7 +836,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>07810655553015201510101010525151051010155151010150</v>
+        <v>07810655553015201510101010525151051010155151010151510555101551050</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-7-18.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-18.xlsx
@@ -775,6 +775,9 @@
       <c r="C41" t="str">
         <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
       </c>
+      <c r="F41" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -836,7 +839,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>07810655553015201510101010525151051010155151010151510555101551050</v>
+        <v>07810655553015201510101010525151051010155151010151510555101551055</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-7-18.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-18.xlsx
@@ -841,6 +841,9 @@
       <c r="G2" t="str">
         <v>07810655553015201510101010525151051010155151010151510555101551055</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
